--- a/Code/Results/Cases/Case_0_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.580149883832647</v>
+        <v>8.88020426756265</v>
       </c>
       <c r="D2">
-        <v>4.926667366210366</v>
+        <v>7.31260311002256</v>
       </c>
       <c r="E2">
-        <v>8.345057072458697</v>
+        <v>13.17366153915612</v>
       </c>
       <c r="F2">
-        <v>29.6311366956814</v>
+        <v>42.72123245259331</v>
       </c>
       <c r="G2">
-        <v>38.00044975815208</v>
+        <v>51.14327410568792</v>
       </c>
       <c r="H2">
-        <v>12.2545602760035</v>
+        <v>19.85655135252868</v>
       </c>
       <c r="I2">
-        <v>22.00357393742335</v>
+        <v>32.95461377668224</v>
       </c>
       <c r="J2">
-        <v>6.045858736989525</v>
+        <v>10.61427242236585</v>
       </c>
       <c r="K2">
-        <v>21.35651928907708</v>
+        <v>20.35528468791982</v>
       </c>
       <c r="L2">
-        <v>5.976430733059882</v>
+        <v>10.44912945570019</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.69620158817669</v>
+        <v>18.98221975678306</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.316415697930338</v>
+        <v>8.84619330212686</v>
       </c>
       <c r="D3">
-        <v>4.756900374834321</v>
+        <v>7.291746680852307</v>
       </c>
       <c r="E3">
-        <v>8.180202075743335</v>
+        <v>13.17509751968188</v>
       </c>
       <c r="F3">
-        <v>29.02837176263282</v>
+        <v>42.77946693131241</v>
       </c>
       <c r="G3">
-        <v>37.01910975596045</v>
+        <v>51.19074642049652</v>
       </c>
       <c r="H3">
-        <v>12.20648731346663</v>
+        <v>19.91338659552721</v>
       </c>
       <c r="I3">
-        <v>21.66114124142332</v>
+        <v>33.01745030940503</v>
       </c>
       <c r="J3">
-        <v>6.051999493463072</v>
+        <v>10.63554970605779</v>
       </c>
       <c r="K3">
-        <v>20.0514005304572</v>
+        <v>20.02089748042232</v>
       </c>
       <c r="L3">
-        <v>5.966138505039691</v>
+        <v>10.46643927751476</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.88276857992823</v>
+        <v>19.04134677326683</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.151437395725769</v>
+        <v>8.826535753964091</v>
       </c>
       <c r="D4">
-        <v>4.65083099920161</v>
+        <v>7.279619139429999</v>
       </c>
       <c r="E4">
-        <v>8.081222560018377</v>
+        <v>13.1777976426032</v>
       </c>
       <c r="F4">
-        <v>28.682447869068</v>
+        <v>42.82585489569176</v>
       </c>
       <c r="G4">
-        <v>36.45090260629603</v>
+        <v>51.23536699543946</v>
       </c>
       <c r="H4">
-        <v>12.18758453157829</v>
+        <v>19.95213078219293</v>
       </c>
       <c r="I4">
-        <v>21.4698789066862</v>
+        <v>33.06367098964017</v>
       </c>
       <c r="J4">
-        <v>6.058287757665038</v>
+        <v>10.64977244910957</v>
       </c>
       <c r="K4">
-        <v>19.21341982374098</v>
+        <v>19.8162816067607</v>
       </c>
       <c r="L4">
-        <v>5.96208154110825</v>
+        <v>10.47815221363428</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.00073926243977</v>
+        <v>19.07961914397178</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.083532810819121</v>
+        <v>8.818838679814526</v>
       </c>
       <c r="D5">
-        <v>4.607202791392715</v>
+        <v>7.274850511660517</v>
       </c>
       <c r="E5">
-        <v>8.041484335487269</v>
+        <v>13.17935626254699</v>
       </c>
       <c r="F5">
-        <v>28.54752235774409</v>
+        <v>42.84742466629696</v>
       </c>
       <c r="G5">
-        <v>36.22801196496501</v>
+        <v>51.25742736973332</v>
       </c>
       <c r="H5">
-        <v>12.18244342855671</v>
+        <v>19.96888477032422</v>
       </c>
       <c r="I5">
-        <v>21.39662193715059</v>
+        <v>33.08442184746694</v>
       </c>
       <c r="J5">
-        <v>6.06146818700866</v>
+        <v>10.65585995109731</v>
       </c>
       <c r="K5">
-        <v>18.86290754108527</v>
+        <v>19.73317845945127</v>
       </c>
       <c r="L5">
-        <v>5.960986619851207</v>
+        <v>10.48319844050587</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.04967951917945</v>
+        <v>19.09571159889364</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.072219437580621</v>
+        <v>8.817579675378637</v>
       </c>
       <c r="D6">
-        <v>4.59993571644622</v>
+        <v>7.274069241263102</v>
       </c>
       <c r="E6">
-        <v>8.034922833714141</v>
+        <v>13.17964277805867</v>
       </c>
       <c r="F6">
-        <v>28.52548148836695</v>
+        <v>42.85116711949897</v>
       </c>
       <c r="G6">
-        <v>36.19152419376767</v>
+        <v>51.26132420746008</v>
       </c>
       <c r="H6">
-        <v>12.18174134128742</v>
+        <v>19.97172500724083</v>
       </c>
       <c r="I6">
-        <v>21.38473764000399</v>
+        <v>33.08798304231758</v>
       </c>
       <c r="J6">
-        <v>6.062033178971836</v>
+        <v>10.65688839880722</v>
       </c>
       <c r="K6">
-        <v>18.8041664424961</v>
+        <v>19.71939916682585</v>
       </c>
       <c r="L6">
-        <v>5.960838221856242</v>
+        <v>10.48405286853624</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.0578585436771</v>
+        <v>19.09841374220655</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.150524213788835</v>
+        <v>8.826430672102816</v>
       </c>
       <c r="D7">
-        <v>4.650244171225743</v>
+        <v>7.279554122089174</v>
       </c>
       <c r="E7">
-        <v>8.080684176849045</v>
+        <v>13.17781680578565</v>
       </c>
       <c r="F7">
-        <v>28.68060381894352</v>
+        <v>42.82613500770865</v>
       </c>
       <c r="G7">
-        <v>36.4478615579533</v>
+        <v>51.23564883070505</v>
       </c>
       <c r="H7">
-        <v>12.18750496572072</v>
+        <v>19.95235282609866</v>
       </c>
       <c r="I7">
-        <v>21.46887210293086</v>
+        <v>33.06394309437407</v>
       </c>
       <c r="J7">
-        <v>6.058328167909831</v>
+        <v>10.6498533661064</v>
       </c>
       <c r="K7">
-        <v>19.20872896394513</v>
+        <v>19.81515957964769</v>
       </c>
       <c r="L7">
-        <v>5.962064527923254</v>
+        <v>10.47821916251699</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.00139577088621</v>
+        <v>19.07983416189605</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.489897330730704</v>
+        <v>8.868226315546639</v>
       </c>
       <c r="D8">
-        <v>4.868544054229765</v>
+        <v>7.305272761935511</v>
       </c>
       <c r="E8">
-        <v>8.287769423895513</v>
+        <v>13.17377991133387</v>
       </c>
       <c r="F8">
-        <v>29.41826774731438</v>
+        <v>42.73910107790761</v>
       </c>
       <c r="G8">
-        <v>37.65497843045457</v>
+        <v>51.15642380299204</v>
       </c>
       <c r="H8">
-        <v>12.23571756095764</v>
+        <v>19.87534850818717</v>
       </c>
       <c r="I8">
-        <v>21.88150963344269</v>
+        <v>32.97469134816794</v>
       </c>
       <c r="J8">
-        <v>6.047444193292468</v>
+        <v>10.62136860102109</v>
       </c>
       <c r="K8">
-        <v>20.9142102493064</v>
+        <v>20.2399047823583</v>
       </c>
       <c r="L8">
-        <v>5.972405975688226</v>
+        <v>10.45487298999463</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.75982441122686</v>
+        <v>19.00219901199261</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.127831165454546</v>
+        <v>8.959658613855373</v>
       </c>
       <c r="D9">
-        <v>5.279907461495746</v>
+        <v>7.360959905831923</v>
       </c>
       <c r="E9">
-        <v>8.710241804114167</v>
+        <v>13.18024233598129</v>
       </c>
       <c r="F9">
-        <v>31.05769137470356</v>
+        <v>42.65306443582478</v>
       </c>
       <c r="G9">
-        <v>40.29263041142428</v>
+        <v>51.124334635881</v>
       </c>
       <c r="H9">
-        <v>12.41922809329625</v>
+        <v>19.75495476286142</v>
       </c>
       <c r="I9">
-        <v>22.84495260000293</v>
+        <v>32.86049652206117</v>
       </c>
       <c r="J9">
-        <v>6.046788721364686</v>
+        <v>10.57468700647669</v>
       </c>
       <c r="K9">
-        <v>24.04846558039013</v>
+        <v>21.07388015762417</v>
       </c>
       <c r="L9">
-        <v>6.011122579502716</v>
+        <v>10.41768102932987</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.31295249334547</v>
+        <v>18.86551664178042</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.575932073661068</v>
+        <v>9.03225317826822</v>
       </c>
       <c r="D10">
-        <v>5.569436077230798</v>
+        <v>7.404895773596105</v>
       </c>
       <c r="E10">
-        <v>9.028849166614259</v>
+        <v>13.19368352401292</v>
       </c>
       <c r="F10">
-        <v>32.38075108698234</v>
+        <v>42.64176935486302</v>
       </c>
       <c r="G10">
-        <v>42.3924741004997</v>
+        <v>51.17644798609883</v>
       </c>
       <c r="H10">
-        <v>12.61472882102874</v>
+        <v>19.68527837651138</v>
       </c>
       <c r="I10">
-        <v>23.65117124933828</v>
+        <v>32.81394801394606</v>
       </c>
       <c r="J10">
-        <v>6.059944452282418</v>
+        <v>10.54596499628297</v>
       </c>
       <c r="K10">
-        <v>26.27921574759733</v>
+        <v>21.68135649543964</v>
       </c>
       <c r="L10">
-        <v>6.051495794585927</v>
+        <v>10.39557072000331</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.00070572959291</v>
+        <v>18.77450362900549</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.774733132137006</v>
+        <v>9.066373878596517</v>
       </c>
       <c r="D11">
-        <v>5.697981231963755</v>
+        <v>7.425499084768152</v>
       </c>
       <c r="E11">
-        <v>9.175251557482374</v>
+        <v>13.20166769878634</v>
       </c>
       <c r="F11">
-        <v>33.00859848560687</v>
+        <v>42.64794898739201</v>
       </c>
       <c r="G11">
-        <v>43.38243690955742</v>
+        <v>51.21665383179423</v>
       </c>
       <c r="H11">
-        <v>12.71820906863407</v>
+        <v>19.65768131388248</v>
       </c>
       <c r="I11">
-        <v>24.04013631996734</v>
+        <v>32.80092811687874</v>
       </c>
       <c r="J11">
-        <v>6.069127872175391</v>
+        <v>10.53410498186516</v>
       </c>
       <c r="K11">
-        <v>27.24422117732338</v>
+        <v>21.95538213171602</v>
       </c>
       <c r="L11">
-        <v>6.072608469319387</v>
+        <v>10.38663969071774</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.86211446496131</v>
+        <v>18.73512594511838</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.849253676120388</v>
+        <v>9.079444996033995</v>
       </c>
       <c r="D12">
-        <v>5.746176329145248</v>
+        <v>7.433386072976951</v>
       </c>
       <c r="E12">
-        <v>9.230878370894628</v>
+        <v>13.20495813607705</v>
       </c>
       <c r="F12">
-        <v>33.2501084554535</v>
+        <v>42.65191809309419</v>
       </c>
       <c r="G12">
-        <v>43.76229058094287</v>
+        <v>51.23425194995955</v>
       </c>
       <c r="H12">
-        <v>12.75959778187543</v>
+        <v>19.64782225362009</v>
       </c>
       <c r="I12">
-        <v>24.19068820992889</v>
+        <v>32.79717322104121</v>
       </c>
       <c r="J12">
-        <v>6.073086236064342</v>
+        <v>10.52978695606281</v>
       </c>
       <c r="K12">
-        <v>27.60262484407718</v>
+        <v>22.05872048661547</v>
       </c>
       <c r="L12">
-        <v>6.081011686010793</v>
+        <v>10.38341940714562</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.81013074907298</v>
+        <v>18.72050459427998</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.833238666674461</v>
+        <v>9.076623330451669</v>
       </c>
       <c r="D13">
-        <v>5.735818474274428</v>
+        <v>7.431683750413592</v>
       </c>
       <c r="E13">
-        <v>9.218890133683987</v>
+        <v>13.20423763764747</v>
       </c>
       <c r="F13">
-        <v>33.19792731320267</v>
+        <v>42.65099081349135</v>
       </c>
       <c r="G13">
-        <v>43.68026088240029</v>
+        <v>51.2303563605056</v>
       </c>
       <c r="H13">
-        <v>12.75058422316212</v>
+        <v>19.64991924889706</v>
       </c>
       <c r="I13">
-        <v>24.15811811400082</v>
+        <v>32.79792958951214</v>
       </c>
       <c r="J13">
-        <v>6.072212003065716</v>
+        <v>10.53070922588647</v>
       </c>
       <c r="K13">
-        <v>27.52574630263176</v>
+        <v>22.03648529255254</v>
       </c>
       <c r="L13">
-        <v>6.07918352318401</v>
+        <v>10.3841057669676</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.82130418079239</v>
+        <v>18.72364067625636</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.780879408383344</v>
+        <v>9.067446277275591</v>
       </c>
       <c r="D14">
-        <v>5.701956072077294</v>
+        <v>7.42614627089073</v>
       </c>
       <c r="E14">
-        <v>9.179824372023159</v>
+        <v>13.20193306506393</v>
       </c>
       <c r="F14">
-        <v>33.02839216276941</v>
+        <v>42.64824287601177</v>
       </c>
       <c r="G14">
-        <v>43.41358794605519</v>
+        <v>51.21805408741634</v>
       </c>
       <c r="H14">
-        <v>12.72156935174689</v>
+        <v>19.65685834097326</v>
       </c>
       <c r="I14">
-        <v>24.05245660196115</v>
+        <v>32.80059562803626</v>
       </c>
       <c r="J14">
-        <v>6.069443769533661</v>
+        <v>10.53374626765799</v>
       </c>
       <c r="K14">
-        <v>27.27384720783328</v>
+        <v>21.96389297610681</v>
       </c>
       <c r="L14">
-        <v>6.073291544963107</v>
+        <v>10.38637151740663</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.85782773893611</v>
+        <v>18.73391722896755</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.748707825806456</v>
+        <v>9.061844423528846</v>
       </c>
       <c r="D15">
-        <v>5.681150862891869</v>
+        <v>7.422765357426559</v>
       </c>
       <c r="E15">
-        <v>9.155919247714635</v>
+        <v>13.20055616187662</v>
       </c>
       <c r="F15">
-        <v>32.92503727771521</v>
+        <v>42.64677185427689</v>
       </c>
       <c r="G15">
-        <v>43.25089118519593</v>
+        <v>51.21082759661222</v>
       </c>
       <c r="H15">
-        <v>12.70408711427442</v>
+        <v>19.66118580123386</v>
       </c>
       <c r="I15">
-        <v>23.9881623483609</v>
+        <v>32.80238180309032</v>
       </c>
       <c r="J15">
-        <v>6.067811399965536</v>
+        <v>10.53562907821989</v>
       </c>
       <c r="K15">
-        <v>27.11864130140212</v>
+        <v>21.91936941905142</v>
       </c>
       <c r="L15">
-        <v>6.069736119787598</v>
+        <v>10.38778040248671</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.88026438907883</v>
+        <v>18.74024966736088</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.562835195264209</v>
+        <v>9.030044757792487</v>
       </c>
       <c r="D16">
-        <v>5.560969240989808</v>
+        <v>7.403561392322748</v>
       </c>
       <c r="E16">
-        <v>9.019308832084933</v>
+        <v>13.19319920728872</v>
       </c>
       <c r="F16">
-        <v>32.34024410664732</v>
+        <v>42.64159340379679</v>
       </c>
       <c r="G16">
-        <v>42.32847428159353</v>
+        <v>51.17415254852309</v>
       </c>
       <c r="H16">
-        <v>12.60826834688746</v>
+        <v>19.68716455840244</v>
       </c>
       <c r="I16">
-        <v>23.62620390141089</v>
+        <v>32.81496324838368</v>
       </c>
       <c r="J16">
-        <v>6.059410414551191</v>
+        <v>10.54676431511516</v>
       </c>
       <c r="K16">
-        <v>26.21516007166737</v>
+        <v>21.66339333697524</v>
       </c>
       <c r="L16">
-        <v>6.050172425770995</v>
+        <v>10.39617703199512</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.00983251323323</v>
+        <v>18.77711770620003</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.447488224165562</v>
+        <v>9.010812477837549</v>
       </c>
       <c r="D17">
-        <v>5.486410416622379</v>
+        <v>7.391935712541459</v>
       </c>
       <c r="E17">
-        <v>8.935860338723725</v>
+        <v>13.18916355648063</v>
       </c>
       <c r="F17">
-        <v>31.98815779351204</v>
+        <v>42.64131684019886</v>
       </c>
       <c r="G17">
-        <v>41.77147400407009</v>
+        <v>51.15588064129928</v>
       </c>
       <c r="H17">
-        <v>12.55329125277069</v>
+        <v>19.70415294163739</v>
       </c>
       <c r="I17">
-        <v>23.40988829132218</v>
+        <v>32.82477246750981</v>
       </c>
       <c r="J17">
-        <v>6.05509041215441</v>
+        <v>10.55390404831021</v>
       </c>
       <c r="K17">
-        <v>25.64824798820223</v>
+        <v>21.50569701387284</v>
       </c>
       <c r="L17">
-        <v>6.038883496090581</v>
+        <v>10.40161650172751</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.09020259779198</v>
+        <v>18.80025287257779</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.380670623873506</v>
+        <v>8.999854298448456</v>
       </c>
       <c r="D18">
-        <v>5.443229729414783</v>
+        <v>7.385307201029542</v>
       </c>
       <c r="E18">
-        <v>8.888002152319231</v>
+        <v>13.18701846355201</v>
       </c>
       <c r="F18">
-        <v>31.78809053050686</v>
+        <v>42.64222304270816</v>
       </c>
       <c r="G18">
-        <v>41.45437083531897</v>
+        <v>51.1469242527116</v>
       </c>
       <c r="H18">
-        <v>12.5230323617482</v>
+        <v>19.71430992623148</v>
       </c>
       <c r="I18">
-        <v>23.28755597824011</v>
+        <v>32.83118195801661</v>
       </c>
       <c r="J18">
-        <v>6.052905435062248</v>
+        <v>10.55812414419054</v>
       </c>
       <c r="K18">
-        <v>25.31748158326978</v>
+        <v>21.41478152058499</v>
       </c>
       <c r="L18">
-        <v>6.032648099023135</v>
+        <v>10.40485124769317</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.13675397124588</v>
+        <v>18.8137502310969</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.357967336270356</v>
+        <v>8.996162083203732</v>
       </c>
       <c r="D19">
-        <v>5.428559503019673</v>
+        <v>7.38307302077299</v>
       </c>
       <c r="E19">
-        <v>8.871822879107716</v>
+        <v>13.18632247263238</v>
       </c>
       <c r="F19">
-        <v>31.72077043396776</v>
+        <v>42.64271276236556</v>
       </c>
       <c r="G19">
-        <v>41.34756765005261</v>
+        <v>51.14415846597841</v>
       </c>
       <c r="H19">
-        <v>12.51301784519522</v>
+        <v>19.71781509422667</v>
       </c>
       <c r="I19">
-        <v>23.24649283527025</v>
+        <v>32.83348382406255</v>
       </c>
       <c r="J19">
-        <v>6.05221651095838</v>
+        <v>10.55957250023639</v>
       </c>
       <c r="K19">
-        <v>25.20467969419561</v>
+        <v>21.3839655463837</v>
       </c>
       <c r="L19">
-        <v>6.030580765501908</v>
+        <v>10.40596471207284</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.15257121745809</v>
+        <v>18.81835297569342</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.459816358686029</v>
+        <v>9.012849105290147</v>
       </c>
       <c r="D20">
-        <v>5.494378224972404</v>
+        <v>7.393167281676708</v>
       </c>
       <c r="E20">
-        <v>8.944729351937482</v>
+        <v>13.18957494501634</v>
       </c>
       <c r="F20">
-        <v>32.02538498300305</v>
+        <v>42.64123601383011</v>
       </c>
       <c r="G20">
-        <v>41.83042958331409</v>
+        <v>51.15766496178578</v>
       </c>
       <c r="H20">
-        <v>12.55900184252755</v>
+        <v>19.70230456494342</v>
       </c>
       <c r="I20">
-        <v>23.43269903407322</v>
+        <v>32.82364880538794</v>
       </c>
       <c r="J20">
-        <v>6.055519111359767</v>
+        <v>10.55313226568939</v>
       </c>
       <c r="K20">
-        <v>25.70908156994196</v>
+        <v>21.52250678177176</v>
       </c>
       <c r="L20">
-        <v>6.040058456992071</v>
+        <v>10.40102648185366</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.08161346492616</v>
+        <v>18.79777037326991</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.796279487908111</v>
+        <v>9.070137779928903</v>
       </c>
       <c r="D21">
-        <v>5.711915557028859</v>
+        <v>7.427770487097604</v>
       </c>
       <c r="E21">
-        <v>9.191294012593781</v>
+        <v>13.20260274304061</v>
       </c>
       <c r="F21">
-        <v>33.07808650773055</v>
+        <v>42.64900579500841</v>
       </c>
       <c r="G21">
-        <v>43.49178116643749</v>
+        <v>51.22160316951226</v>
       </c>
       <c r="H21">
-        <v>12.73003104378564</v>
+        <v>19.65480409766577</v>
       </c>
       <c r="I21">
-        <v>24.08340294824195</v>
+        <v>32.7997806276953</v>
       </c>
       <c r="J21">
-        <v>6.070243645968216</v>
+        <v>10.53284951915467</v>
       </c>
       <c r="K21">
-        <v>27.34802555840577</v>
+        <v>21.98522749030118</v>
       </c>
       <c r="L21">
-        <v>6.075010970572238</v>
+        <v>10.38570162596459</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.84708634964174</v>
+        <v>18.73089089037278</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.011731216037671</v>
+        <v>9.108452006083914</v>
       </c>
       <c r="D22">
-        <v>5.8512695095621</v>
+        <v>7.450879114509784</v>
       </c>
       <c r="E22">
-        <v>9.353522927855115</v>
+        <v>13.21267249696256</v>
       </c>
       <c r="F22">
-        <v>33.78801402986159</v>
+        <v>42.66357874485316</v>
       </c>
       <c r="G22">
-        <v>44.60659507886027</v>
+        <v>51.27722064244025</v>
       </c>
       <c r="H22">
-        <v>12.85470158509371</v>
+        <v>19.62720744509931</v>
       </c>
       <c r="I22">
-        <v>24.52770802538465</v>
+        <v>32.79103366681081</v>
       </c>
       <c r="J22">
-        <v>6.082680041099649</v>
+        <v>10.52060242134369</v>
       </c>
       <c r="K22">
-        <v>28.37830471051736</v>
+        <v>22.28509908604212</v>
       </c>
       <c r="L22">
-        <v>6.100241125265236</v>
+        <v>10.37662830109578</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.69671351909177</v>
+        <v>18.68887189483129</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.897156883638551</v>
+        <v>9.087925625890076</v>
       </c>
       <c r="D23">
-        <v>5.777159272980334</v>
+        <v>7.438501707105201</v>
       </c>
       <c r="E23">
-        <v>9.266845656843817</v>
+        <v>13.20715641873148</v>
       </c>
       <c r="F23">
-        <v>33.40709441913356</v>
+        <v>42.6549319216471</v>
       </c>
       <c r="G23">
-        <v>44.00893841181562</v>
+        <v>51.24627164301461</v>
       </c>
       <c r="H23">
-        <v>12.78694584735059</v>
+        <v>19.64162023244432</v>
       </c>
       <c r="I23">
-        <v>24.28880944333109</v>
+        <v>32.79507436317675</v>
       </c>
       <c r="J23">
-        <v>6.075777900048626</v>
+        <v>10.52704671302957</v>
       </c>
       <c r="K23">
-        <v>27.83211749835771</v>
+        <v>22.12531521662564</v>
       </c>
       <c r="L23">
-        <v>6.086552330169183</v>
+        <v>10.38138480341036</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.77670338321751</v>
+        <v>18.71114385890618</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.454244373239244</v>
+        <v>9.011928037996981</v>
       </c>
       <c r="D24">
-        <v>5.49077696040612</v>
+        <v>7.392610316923361</v>
       </c>
       <c r="E24">
-        <v>8.940719303352584</v>
+        <v>13.18938841084682</v>
       </c>
       <c r="F24">
-        <v>32.00854724653647</v>
+        <v>42.64126923739249</v>
       </c>
       <c r="G24">
-        <v>41.80376603433446</v>
+        <v>51.15685344731128</v>
       </c>
       <c r="H24">
-        <v>12.55641589405507</v>
+        <v>19.70313900086052</v>
       </c>
       <c r="I24">
-        <v>23.42237997782322</v>
+        <v>32.82415441452295</v>
       </c>
       <c r="J24">
-        <v>6.055324367781216</v>
+        <v>10.55348082922226</v>
       </c>
       <c r="K24">
-        <v>25.68159379662471</v>
+        <v>21.51490786876678</v>
       </c>
       <c r="L24">
-        <v>6.039526464650124</v>
+        <v>10.40129289488578</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.0854955356882</v>
+        <v>18.7988920985546</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.958637105678616</v>
+        <v>8.933945269566818</v>
       </c>
       <c r="D25">
-        <v>5.170694221808557</v>
+        <v>7.345350787650267</v>
       </c>
       <c r="E25">
-        <v>8.594388256789747</v>
+        <v>13.17696163884362</v>
       </c>
       <c r="F25">
-        <v>30.59341355471622</v>
+        <v>42.66724121833727</v>
       </c>
       <c r="G25">
-        <v>39.5504150452239</v>
+        <v>51.11975287822066</v>
       </c>
       <c r="H25">
-        <v>12.3593910872218</v>
+        <v>19.78423508415262</v>
       </c>
       <c r="I25">
-        <v>22.5673263593573</v>
+        <v>32.88484728656489</v>
       </c>
       <c r="J25">
-        <v>6.044648181156552</v>
+        <v>10.58633516964356</v>
       </c>
       <c r="K25">
-        <v>23.18199183846677</v>
+        <v>20.84877285446163</v>
       </c>
       <c r="L25">
-        <v>5.998604930364369</v>
+        <v>10.4268250785938</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.43100474555817</v>
+        <v>18.90083523766111</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.88020426756265</v>
+        <v>6.580149883832647</v>
       </c>
       <c r="D2">
-        <v>7.31260311002256</v>
+        <v>4.926667366210295</v>
       </c>
       <c r="E2">
-        <v>13.17366153915612</v>
+        <v>8.345057072458657</v>
       </c>
       <c r="F2">
-        <v>42.72123245259331</v>
+        <v>29.63113669568135</v>
       </c>
       <c r="G2">
-        <v>51.14327410568792</v>
+        <v>38.00044975815206</v>
       </c>
       <c r="H2">
-        <v>19.85655135252868</v>
+        <v>12.2545602760035</v>
       </c>
       <c r="I2">
-        <v>32.95461377668224</v>
+        <v>22.00357393742334</v>
       </c>
       <c r="J2">
-        <v>10.61427242236585</v>
+        <v>6.045858736989497</v>
       </c>
       <c r="K2">
-        <v>20.35528468791982</v>
+        <v>21.35651928907707</v>
       </c>
       <c r="L2">
-        <v>10.44912945570019</v>
+        <v>5.976430733059825</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.98221975678306</v>
+        <v>12.69620158817669</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.84619330212686</v>
+        <v>6.316415697930188</v>
       </c>
       <c r="D3">
-        <v>7.291746680852307</v>
+        <v>4.756900374834287</v>
       </c>
       <c r="E3">
-        <v>13.17509751968188</v>
+        <v>8.180202075743246</v>
       </c>
       <c r="F3">
-        <v>42.77946693131241</v>
+        <v>29.02837176263271</v>
       </c>
       <c r="G3">
-        <v>51.19074642049652</v>
+        <v>37.01910975596041</v>
       </c>
       <c r="H3">
-        <v>19.91338659552721</v>
+        <v>12.2064873134666</v>
       </c>
       <c r="I3">
-        <v>33.01745030940503</v>
+        <v>21.66114124142322</v>
       </c>
       <c r="J3">
-        <v>10.63554970605779</v>
+        <v>6.051999493463018</v>
       </c>
       <c r="K3">
-        <v>20.02089748042232</v>
+        <v>20.05140053045722</v>
       </c>
       <c r="L3">
-        <v>10.46643927751476</v>
+        <v>5.966138505039664</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.04134677326683</v>
+        <v>12.88276857992819</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.826535753964091</v>
+        <v>6.151437395725761</v>
       </c>
       <c r="D4">
-        <v>7.279619139429999</v>
+        <v>4.650830999201704</v>
       </c>
       <c r="E4">
-        <v>13.1777976426032</v>
+        <v>8.081222560018336</v>
       </c>
       <c r="F4">
-        <v>42.82585489569176</v>
+        <v>28.6824478690678</v>
       </c>
       <c r="G4">
-        <v>51.23536699543946</v>
+        <v>36.45090260629553</v>
       </c>
       <c r="H4">
-        <v>19.95213078219293</v>
+        <v>12.18758453157823</v>
       </c>
       <c r="I4">
-        <v>33.06367098964017</v>
+        <v>21.46987890668601</v>
       </c>
       <c r="J4">
-        <v>10.64977244910957</v>
+        <v>6.058287757664955</v>
       </c>
       <c r="K4">
-        <v>19.8162816067607</v>
+        <v>19.21341982374095</v>
       </c>
       <c r="L4">
-        <v>10.47815221363428</v>
+        <v>5.962081541108201</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.07961914397178</v>
+        <v>13.00073926243973</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.818838679814526</v>
+        <v>6.083532810819148</v>
       </c>
       <c r="D5">
-        <v>7.274850511660517</v>
+        <v>4.607202791392742</v>
       </c>
       <c r="E5">
-        <v>13.17935626254699</v>
+        <v>8.041484335487315</v>
       </c>
       <c r="F5">
-        <v>42.84742466629696</v>
+        <v>28.54752235774409</v>
       </c>
       <c r="G5">
-        <v>51.25742736973332</v>
+        <v>36.22801196496502</v>
       </c>
       <c r="H5">
-        <v>19.96888477032422</v>
+        <v>12.18244342855665</v>
       </c>
       <c r="I5">
-        <v>33.08442184746694</v>
+        <v>21.39662193715055</v>
       </c>
       <c r="J5">
-        <v>10.65585995109731</v>
+        <v>6.061468187008664</v>
       </c>
       <c r="K5">
-        <v>19.73317845945127</v>
+        <v>18.8629075410853</v>
       </c>
       <c r="L5">
-        <v>10.48319844050587</v>
+        <v>5.960986619851258</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.09571159889364</v>
+        <v>13.04967951917942</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.817579675378637</v>
+        <v>6.072219437580608</v>
       </c>
       <c r="D6">
-        <v>7.274069241263102</v>
+        <v>4.599935716446199</v>
       </c>
       <c r="E6">
-        <v>13.17964277805867</v>
+        <v>8.034922833714091</v>
       </c>
       <c r="F6">
-        <v>42.85116711949897</v>
+        <v>28.52548148836696</v>
       </c>
       <c r="G6">
-        <v>51.26132420746008</v>
+        <v>36.19152419376776</v>
       </c>
       <c r="H6">
-        <v>19.97172500724083</v>
+        <v>12.18174134128742</v>
       </c>
       <c r="I6">
-        <v>33.08798304231758</v>
+        <v>21.38473764000405</v>
       </c>
       <c r="J6">
-        <v>10.65688839880722</v>
+        <v>6.062033178971834</v>
       </c>
       <c r="K6">
-        <v>19.71939916682585</v>
+        <v>18.8041664424961</v>
       </c>
       <c r="L6">
-        <v>10.48405286853624</v>
+        <v>5.960838221856212</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.09841374220655</v>
+        <v>13.05785854367717</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.826430672102816</v>
+        <v>6.150524213788999</v>
       </c>
       <c r="D7">
-        <v>7.279554122089174</v>
+        <v>4.650244171225743</v>
       </c>
       <c r="E7">
-        <v>13.17781680578565</v>
+        <v>8.080684176849143</v>
       </c>
       <c r="F7">
-        <v>42.82613500770865</v>
+        <v>28.6806038189435</v>
       </c>
       <c r="G7">
-        <v>51.23564883070505</v>
+        <v>36.44786155795327</v>
       </c>
       <c r="H7">
-        <v>19.95235282609866</v>
+        <v>12.18750496572072</v>
       </c>
       <c r="I7">
-        <v>33.06394309437407</v>
+        <v>21.46887210293087</v>
       </c>
       <c r="J7">
-        <v>10.6498533661064</v>
+        <v>6.058328167909948</v>
       </c>
       <c r="K7">
-        <v>19.81515957964769</v>
+        <v>19.20872896394513</v>
       </c>
       <c r="L7">
-        <v>10.47821916251699</v>
+        <v>5.962064527923339</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.07983416189605</v>
+        <v>13.00139577088621</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.868226315546639</v>
+        <v>6.489897330730717</v>
       </c>
       <c r="D8">
-        <v>7.305272761935511</v>
+        <v>4.868544054229744</v>
       </c>
       <c r="E8">
-        <v>13.17377991133387</v>
+        <v>8.287769423895517</v>
       </c>
       <c r="F8">
-        <v>42.73910107790761</v>
+        <v>29.41826774731436</v>
       </c>
       <c r="G8">
-        <v>51.15642380299204</v>
+        <v>37.65497843045457</v>
       </c>
       <c r="H8">
-        <v>19.87534850818717</v>
+        <v>12.23571756095773</v>
       </c>
       <c r="I8">
-        <v>32.97469134816794</v>
+        <v>21.88150963344269</v>
       </c>
       <c r="J8">
-        <v>10.62136860102109</v>
+        <v>6.047444193292524</v>
       </c>
       <c r="K8">
-        <v>20.2399047823583</v>
+        <v>20.91421024930639</v>
       </c>
       <c r="L8">
-        <v>10.45487298999463</v>
+        <v>5.972405975688224</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.00219901199261</v>
+        <v>12.7598244112269</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.959658613855373</v>
+        <v>7.127831165454531</v>
       </c>
       <c r="D9">
-        <v>7.360959905831923</v>
+        <v>5.279907461495787</v>
       </c>
       <c r="E9">
-        <v>13.18024233598129</v>
+        <v>8.710241804114274</v>
       </c>
       <c r="F9">
-        <v>42.65306443582478</v>
+        <v>31.05769137470363</v>
       </c>
       <c r="G9">
-        <v>51.124334635881</v>
+        <v>40.2926304114244</v>
       </c>
       <c r="H9">
-        <v>19.75495476286142</v>
+        <v>12.41922809329634</v>
       </c>
       <c r="I9">
-        <v>32.86049652206117</v>
+        <v>22.84495260000301</v>
       </c>
       <c r="J9">
-        <v>10.57468700647669</v>
+        <v>6.046788721364714</v>
       </c>
       <c r="K9">
-        <v>21.07388015762417</v>
+        <v>24.04846558039013</v>
       </c>
       <c r="L9">
-        <v>10.41768102932987</v>
+        <v>6.011122579502745</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.86551664178042</v>
+        <v>12.3129524933455</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.03225317826822</v>
+        <v>7.575932073661034</v>
       </c>
       <c r="D10">
-        <v>7.404895773596105</v>
+        <v>5.569436077230725</v>
       </c>
       <c r="E10">
-        <v>13.19368352401292</v>
+        <v>9.028849166614249</v>
       </c>
       <c r="F10">
-        <v>42.64176935486302</v>
+        <v>32.38075108698234</v>
       </c>
       <c r="G10">
-        <v>51.17644798609883</v>
+        <v>42.39247410049975</v>
       </c>
       <c r="H10">
-        <v>19.68527837651138</v>
+        <v>12.61472882102884</v>
       </c>
       <c r="I10">
-        <v>32.81394801394606</v>
+        <v>23.65117124933828</v>
       </c>
       <c r="J10">
-        <v>10.54596499628297</v>
+        <v>6.059944452282464</v>
       </c>
       <c r="K10">
-        <v>21.68135649543964</v>
+        <v>26.27921574759728</v>
       </c>
       <c r="L10">
-        <v>10.39557072000331</v>
+        <v>6.051495794585976</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.77450362900549</v>
+        <v>12.00070572959291</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.066373878596517</v>
+        <v>7.774733132137057</v>
       </c>
       <c r="D11">
-        <v>7.425499084768152</v>
+        <v>5.697981231963724</v>
       </c>
       <c r="E11">
-        <v>13.20166769878634</v>
+        <v>9.175251557482374</v>
       </c>
       <c r="F11">
-        <v>42.64794898739201</v>
+        <v>33.00859848560682</v>
       </c>
       <c r="G11">
-        <v>51.21665383179423</v>
+        <v>43.38243690955736</v>
       </c>
       <c r="H11">
-        <v>19.65768131388248</v>
+        <v>12.71820906863405</v>
       </c>
       <c r="I11">
-        <v>32.80092811687874</v>
+        <v>24.04013631996731</v>
       </c>
       <c r="J11">
-        <v>10.53410498186516</v>
+        <v>6.06912787217547</v>
       </c>
       <c r="K11">
-        <v>21.95538213171602</v>
+        <v>27.24422117732335</v>
       </c>
       <c r="L11">
-        <v>10.38663969071774</v>
+        <v>6.072608469319361</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.73512594511838</v>
+        <v>11.86211446496125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.079444996033995</v>
+        <v>7.849253676120424</v>
       </c>
       <c r="D12">
-        <v>7.433386072976951</v>
+        <v>5.746176329145303</v>
       </c>
       <c r="E12">
-        <v>13.20495813607705</v>
+        <v>9.230878370894645</v>
       </c>
       <c r="F12">
-        <v>42.65191809309419</v>
+        <v>33.25010845545349</v>
       </c>
       <c r="G12">
-        <v>51.23425194995955</v>
+        <v>43.76229058094287</v>
       </c>
       <c r="H12">
-        <v>19.64782225362009</v>
+        <v>12.75959778187538</v>
       </c>
       <c r="I12">
-        <v>32.79717322104121</v>
+        <v>24.19068820992888</v>
       </c>
       <c r="J12">
-        <v>10.52978695606281</v>
+        <v>6.073086236064313</v>
       </c>
       <c r="K12">
-        <v>22.05872048661547</v>
+        <v>27.60262484407717</v>
       </c>
       <c r="L12">
-        <v>10.38341940714562</v>
+        <v>6.08101168601076</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.72050459427998</v>
+        <v>11.81013074907301</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.076623330451669</v>
+        <v>7.833238666674461</v>
       </c>
       <c r="D13">
-        <v>7.431683750413592</v>
+        <v>5.735818474274403</v>
       </c>
       <c r="E13">
-        <v>13.20423763764747</v>
+        <v>9.218890133683997</v>
       </c>
       <c r="F13">
-        <v>42.65099081349135</v>
+        <v>33.19792731320282</v>
       </c>
       <c r="G13">
-        <v>51.2303563605056</v>
+        <v>43.68026088240048</v>
       </c>
       <c r="H13">
-        <v>19.64991924889706</v>
+        <v>12.75058422316217</v>
       </c>
       <c r="I13">
-        <v>32.79792958951214</v>
+        <v>24.15811811400092</v>
       </c>
       <c r="J13">
-        <v>10.53070922588647</v>
+        <v>6.072212003065738</v>
       </c>
       <c r="K13">
-        <v>22.03648529255254</v>
+        <v>27.52574630263176</v>
       </c>
       <c r="L13">
-        <v>10.3841057669676</v>
+        <v>6.079183523184048</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.72364067625636</v>
+        <v>11.82130418079245</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.067446277275591</v>
+        <v>7.780879408383313</v>
       </c>
       <c r="D14">
-        <v>7.42614627089073</v>
+        <v>5.701956072077318</v>
       </c>
       <c r="E14">
-        <v>13.20193306506393</v>
+        <v>9.179824372023116</v>
       </c>
       <c r="F14">
-        <v>42.64824287601177</v>
+        <v>33.02839216276946</v>
       </c>
       <c r="G14">
-        <v>51.21805408741634</v>
+        <v>43.4135879460553</v>
       </c>
       <c r="H14">
-        <v>19.65685834097326</v>
+        <v>12.72156935174693</v>
       </c>
       <c r="I14">
-        <v>32.80059562803626</v>
+        <v>24.0524566019612</v>
       </c>
       <c r="J14">
-        <v>10.53374626765799</v>
+        <v>6.069443769533632</v>
       </c>
       <c r="K14">
-        <v>21.96389297610681</v>
+        <v>27.27384720783327</v>
       </c>
       <c r="L14">
-        <v>10.38637151740663</v>
+        <v>6.073291544963106</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.73391722896755</v>
+        <v>11.8578277389361</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.061844423528846</v>
+        <v>7.748707825806401</v>
       </c>
       <c r="D15">
-        <v>7.422765357426559</v>
+        <v>5.681150862891815</v>
       </c>
       <c r="E15">
-        <v>13.20055616187662</v>
+        <v>9.155919247714609</v>
       </c>
       <c r="F15">
-        <v>42.64677185427689</v>
+        <v>32.9250372777153</v>
       </c>
       <c r="G15">
-        <v>51.21082759661222</v>
+        <v>43.25089118519602</v>
       </c>
       <c r="H15">
-        <v>19.66118580123386</v>
+        <v>12.70408711427446</v>
       </c>
       <c r="I15">
-        <v>32.80238180309032</v>
+        <v>23.98816234836096</v>
       </c>
       <c r="J15">
-        <v>10.53562907821989</v>
+        <v>6.067811399965564</v>
       </c>
       <c r="K15">
-        <v>21.91936941905142</v>
+        <v>27.11864130140205</v>
       </c>
       <c r="L15">
-        <v>10.38778040248671</v>
+        <v>6.069736119787626</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.74024966736088</v>
+        <v>11.88026438907889</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.030044757792487</v>
+        <v>7.562835195264244</v>
       </c>
       <c r="D16">
-        <v>7.403561392322748</v>
+        <v>5.560969240989709</v>
       </c>
       <c r="E16">
-        <v>13.19319920728872</v>
+        <v>9.019308832084894</v>
       </c>
       <c r="F16">
-        <v>42.64159340379679</v>
+        <v>32.34024410664743</v>
       </c>
       <c r="G16">
-        <v>51.17415254852309</v>
+        <v>42.32847428159363</v>
       </c>
       <c r="H16">
-        <v>19.68716455840244</v>
+        <v>12.60826834688758</v>
       </c>
       <c r="I16">
-        <v>32.81496324838368</v>
+        <v>23.62620390141101</v>
       </c>
       <c r="J16">
-        <v>10.54676431511516</v>
+        <v>6.059410414551287</v>
       </c>
       <c r="K16">
-        <v>21.66339333697524</v>
+        <v>26.21516007166731</v>
       </c>
       <c r="L16">
-        <v>10.39617703199512</v>
+        <v>6.050172425770993</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.77711770620003</v>
+        <v>12.00983251323333</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.010812477837549</v>
+        <v>7.447488224165495</v>
       </c>
       <c r="D17">
-        <v>7.391935712541459</v>
+        <v>5.486410416622429</v>
       </c>
       <c r="E17">
-        <v>13.18916355648063</v>
+        <v>8.935860338723733</v>
       </c>
       <c r="F17">
-        <v>42.64131684019886</v>
+        <v>31.98815779351207</v>
       </c>
       <c r="G17">
-        <v>51.15588064129928</v>
+        <v>41.77147400407007</v>
       </c>
       <c r="H17">
-        <v>19.70415294163739</v>
+        <v>12.55329125277069</v>
       </c>
       <c r="I17">
-        <v>32.82477246750981</v>
+        <v>23.40988829132216</v>
       </c>
       <c r="J17">
-        <v>10.55390404831021</v>
+        <v>6.055090412154414</v>
       </c>
       <c r="K17">
-        <v>21.50569701387284</v>
+        <v>25.64824798820225</v>
       </c>
       <c r="L17">
-        <v>10.40161650172751</v>
+        <v>6.038883496090584</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.80025287257779</v>
+        <v>12.09020259779198</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.999854298448456</v>
+        <v>7.380670623873503</v>
       </c>
       <c r="D18">
-        <v>7.385307201029542</v>
+        <v>5.443229729414903</v>
       </c>
       <c r="E18">
-        <v>13.18701846355201</v>
+        <v>8.888002152319226</v>
       </c>
       <c r="F18">
-        <v>42.64222304270816</v>
+        <v>31.78809053050691</v>
       </c>
       <c r="G18">
-        <v>51.1469242527116</v>
+        <v>41.45437083531894</v>
       </c>
       <c r="H18">
-        <v>19.71430992623148</v>
+        <v>12.52303236174825</v>
       </c>
       <c r="I18">
-        <v>32.83118195801661</v>
+        <v>23.28755597824012</v>
       </c>
       <c r="J18">
-        <v>10.55812414419054</v>
+        <v>6.052905435062164</v>
       </c>
       <c r="K18">
-        <v>21.41478152058499</v>
+        <v>25.31748158326978</v>
       </c>
       <c r="L18">
-        <v>10.40485124769317</v>
+        <v>6.032648099023087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.8137502310969</v>
+        <v>12.13675397124585</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.996162083203732</v>
+        <v>7.357967336270457</v>
       </c>
       <c r="D19">
-        <v>7.38307302077299</v>
+        <v>5.428559503019729</v>
       </c>
       <c r="E19">
-        <v>13.18632247263238</v>
+        <v>8.871822879107711</v>
       </c>
       <c r="F19">
-        <v>42.64271276236556</v>
+        <v>31.72077043396772</v>
       </c>
       <c r="G19">
-        <v>51.14415846597841</v>
+        <v>41.34756765005252</v>
       </c>
       <c r="H19">
-        <v>19.71781509422667</v>
+        <v>12.51301784519519</v>
       </c>
       <c r="I19">
-        <v>32.83348382406255</v>
+        <v>23.24649283527022</v>
       </c>
       <c r="J19">
-        <v>10.55957250023639</v>
+        <v>6.052216510958351</v>
       </c>
       <c r="K19">
-        <v>21.3839655463837</v>
+        <v>25.20467969419562</v>
       </c>
       <c r="L19">
-        <v>10.40596471207284</v>
+        <v>6.030580765501913</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.81835297569342</v>
+        <v>12.15257121745806</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.012849105290147</v>
+        <v>7.459816358686055</v>
       </c>
       <c r="D20">
-        <v>7.393167281676708</v>
+        <v>5.494378224972396</v>
       </c>
       <c r="E20">
-        <v>13.18957494501634</v>
+        <v>8.944729351937484</v>
       </c>
       <c r="F20">
-        <v>42.64123601383011</v>
+        <v>32.02538498300301</v>
       </c>
       <c r="G20">
-        <v>51.15766496178578</v>
+        <v>41.83042958331404</v>
       </c>
       <c r="H20">
-        <v>19.70230456494342</v>
+        <v>12.55900184252751</v>
       </c>
       <c r="I20">
-        <v>32.82364880538794</v>
+        <v>23.4326990340732</v>
       </c>
       <c r="J20">
-        <v>10.55313226568939</v>
+        <v>6.055519111359796</v>
       </c>
       <c r="K20">
-        <v>21.52250678177176</v>
+        <v>25.70908156994196</v>
       </c>
       <c r="L20">
-        <v>10.40102648185366</v>
+        <v>6.040058456992059</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.79777037326991</v>
+        <v>12.08161346492616</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.070137779928903</v>
+        <v>7.796279487908057</v>
       </c>
       <c r="D21">
-        <v>7.427770487097604</v>
+        <v>5.711915557028844</v>
       </c>
       <c r="E21">
-        <v>13.20260274304061</v>
+        <v>9.191294012593817</v>
       </c>
       <c r="F21">
-        <v>42.64900579500841</v>
+        <v>33.07808650773064</v>
       </c>
       <c r="G21">
-        <v>51.22160316951226</v>
+        <v>43.49178116643759</v>
       </c>
       <c r="H21">
-        <v>19.65480409766577</v>
+        <v>12.73003104378574</v>
       </c>
       <c r="I21">
-        <v>32.7997806276953</v>
+        <v>24.08340294824201</v>
       </c>
       <c r="J21">
-        <v>10.53284951915467</v>
+        <v>6.070243645968235</v>
       </c>
       <c r="K21">
-        <v>21.98522749030118</v>
+        <v>27.34802555840572</v>
       </c>
       <c r="L21">
-        <v>10.38570162596459</v>
+        <v>6.075010970572327</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.73089089037278</v>
+        <v>11.84708634964181</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.108452006083914</v>
+        <v>8.011731216037663</v>
       </c>
       <c r="D22">
-        <v>7.450879114509784</v>
+        <v>5.851269509562129</v>
       </c>
       <c r="E22">
-        <v>13.21267249696256</v>
+        <v>9.353522927855122</v>
       </c>
       <c r="F22">
-        <v>42.66357874485316</v>
+        <v>33.78801402986153</v>
       </c>
       <c r="G22">
-        <v>51.27722064244025</v>
+        <v>44.60659507886016</v>
       </c>
       <c r="H22">
-        <v>19.62720744509931</v>
+        <v>12.85470158509368</v>
       </c>
       <c r="I22">
-        <v>32.79103366681081</v>
+        <v>24.52770802538459</v>
       </c>
       <c r="J22">
-        <v>10.52060242134369</v>
+        <v>6.082680041099599</v>
       </c>
       <c r="K22">
-        <v>22.28509908604212</v>
+        <v>28.37830471051736</v>
       </c>
       <c r="L22">
-        <v>10.37662830109578</v>
+        <v>6.100241125265215</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.68887189483129</v>
+        <v>11.69671351909174</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.087925625890076</v>
+        <v>7.897156883638545</v>
       </c>
       <c r="D23">
-        <v>7.438501707105201</v>
+        <v>5.777159272980311</v>
       </c>
       <c r="E23">
-        <v>13.20715641873148</v>
+        <v>9.266845656843845</v>
       </c>
       <c r="F23">
-        <v>42.6549319216471</v>
+        <v>33.40709441913353</v>
       </c>
       <c r="G23">
-        <v>51.24627164301461</v>
+        <v>44.00893841181555</v>
       </c>
       <c r="H23">
-        <v>19.64162023244432</v>
+        <v>12.78694584735059</v>
       </c>
       <c r="I23">
-        <v>32.79507436317675</v>
+        <v>24.28880944333107</v>
       </c>
       <c r="J23">
-        <v>10.52704671302957</v>
+        <v>6.075777900048646</v>
       </c>
       <c r="K23">
-        <v>22.12531521662564</v>
+        <v>27.83211749835775</v>
       </c>
       <c r="L23">
-        <v>10.38138480341036</v>
+        <v>6.086552330169162</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.71114385890618</v>
+        <v>11.77670338321748</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.011928037996981</v>
+        <v>7.45424437323937</v>
       </c>
       <c r="D24">
-        <v>7.392610316923361</v>
+        <v>5.490776960406136</v>
       </c>
       <c r="E24">
-        <v>13.18938841084682</v>
+        <v>8.940719303352594</v>
       </c>
       <c r="F24">
-        <v>42.64126923739249</v>
+        <v>32.00854724653638</v>
       </c>
       <c r="G24">
-        <v>51.15685344731128</v>
+        <v>41.80376603433433</v>
       </c>
       <c r="H24">
-        <v>19.70313900086052</v>
+        <v>12.55641589405504</v>
       </c>
       <c r="I24">
-        <v>32.82415441452295</v>
+        <v>23.42237997782315</v>
       </c>
       <c r="J24">
-        <v>10.55348082922226</v>
+        <v>6.055324367781192</v>
       </c>
       <c r="K24">
-        <v>21.51490786876678</v>
+        <v>25.68159379662475</v>
       </c>
       <c r="L24">
-        <v>10.40129289488578</v>
+        <v>6.039526464650074</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.7988920985546</v>
+        <v>12.08549553568817</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.933945269566818</v>
+        <v>6.958637105678671</v>
       </c>
       <c r="D25">
-        <v>7.345350787650267</v>
+        <v>5.170694221808481</v>
       </c>
       <c r="E25">
-        <v>13.17696163884362</v>
+        <v>8.594388256789793</v>
       </c>
       <c r="F25">
-        <v>42.66724121833727</v>
+        <v>30.59341355471634</v>
       </c>
       <c r="G25">
-        <v>51.11975287822066</v>
+        <v>39.55041504522401</v>
       </c>
       <c r="H25">
-        <v>19.78423508415262</v>
+        <v>12.35939108722189</v>
       </c>
       <c r="I25">
-        <v>32.88484728656489</v>
+        <v>22.56732635935745</v>
       </c>
       <c r="J25">
-        <v>10.58633516964356</v>
+        <v>6.04464818115664</v>
       </c>
       <c r="K25">
-        <v>20.84877285446163</v>
+        <v>23.18199183846672</v>
       </c>
       <c r="L25">
-        <v>10.4268250785938</v>
+        <v>5.998604930364385</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.90083523766111</v>
+        <v>12.43100474555827</v>
       </c>
       <c r="O25">
         <v>0</v>
